--- a/packages/server/template/transit_template.xlsx
+++ b/packages/server/template/transit_template.xlsx
@@ -4,13 +4,49 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowHeight="17930"/>
   </bookViews>
   <sheets>
     <sheet name="在途库存" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>wzl</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">必填项
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">必填项
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -41,10 +77,10 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,37 +89,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -103,36 +124,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -145,15 +136,90 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,37 +233,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,6 +247,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -218,175 +325,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,17 +447,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -439,17 +482,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,6 +521,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -486,17 +544,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -505,10 +552,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -517,140 +564,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1003,32 +1051,32 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="22.625" customWidth="1"/>
-    <col min="2" max="3" width="16.25" customWidth="1"/>
-    <col min="4" max="4" width="24.625" customWidth="1"/>
-    <col min="5" max="5" width="20.375" customWidth="1"/>
-    <col min="6" max="6" width="16.25" customWidth="1"/>
+    <col min="1" max="1" width="22.6272727272727" customWidth="1"/>
+    <col min="2" max="3" width="16.2545454545455" customWidth="1"/>
+    <col min="4" max="4" width="24.6272727272727" customWidth="1"/>
+    <col min="5" max="5" width="20.3727272727273" customWidth="1"/>
+    <col min="6" max="6" width="16.2545454545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1039,5 +1087,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>